--- a/summaries/trials/PennEssentialWorkers_Dec2020/variantSummary.xlsx
+++ b/summaries/trials/PennEssentialWorkers_Dec2020/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t xml:space="preserve">position</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t xml:space="preserve">V438A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4096C</t>
   </si>
   <si>
     <t xml:space="preserve">A5011C</t>
@@ -1182,7 +1179,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4096</v>
+        <v>5011</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
@@ -1191,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1199,16 +1196,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5011</v>
+        <v>5497</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1216,7 +1213,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5497</v>
+        <v>5779</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
@@ -1233,7 +1230,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5779</v>
+        <v>6618</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
@@ -1242,7 +1239,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -1250,16 +1247,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6618</v>
+        <v>7168</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1267,7 +1264,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7168</v>
+        <v>7833</v>
       </c>
       <c r="B36" t="s">
         <v>68</v>
@@ -1276,7 +1273,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -1284,16 +1281,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7833</v>
+        <v>9480</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -1301,16 +1298,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9480</v>
+        <v>10741</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -1318,7 +1315,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10741</v>
+        <v>12525</v>
       </c>
       <c r="B39" t="s">
         <v>73</v>
@@ -1327,7 +1324,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1335,16 +1332,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>12525</v>
+        <v>17336</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1352,16 +1349,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>17336</v>
+        <v>18028</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -1369,16 +1366,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18028</v>
+        <v>19172</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1386,16 +1383,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>19172</v>
+        <v>19180</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -1403,16 +1400,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19180</v>
+        <v>20178</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -1420,7 +1417,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20178</v>
+        <v>20268</v>
       </c>
       <c r="B45" t="s">
         <v>84</v>
@@ -1437,13 +1434,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20268</v>
+        <v>22591</v>
       </c>
       <c r="B46" t="s">
         <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -1454,7 +1451,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>22591</v>
+        <v>22969</v>
       </c>
       <c r="B47" t="s">
         <v>86</v>
@@ -1471,7 +1468,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>22969</v>
+        <v>23604</v>
       </c>
       <c r="B48" t="s">
         <v>87</v>
@@ -1480,7 +1477,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -1488,16 +1485,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>23604</v>
+        <v>24076</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -1505,7 +1502,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>24076</v>
+        <v>24095</v>
       </c>
       <c r="B50" t="s">
         <v>90</v>
@@ -1514,7 +1511,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -1522,16 +1519,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>24095</v>
+        <v>26459</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -1539,16 +1536,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>26459</v>
+        <v>27390</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -1556,16 +1553,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>27390</v>
+        <v>27920</v>
       </c>
       <c r="B53" t="s">
         <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -1573,7 +1570,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27920</v>
+        <v>27923</v>
       </c>
       <c r="B54" t="s">
         <v>96</v>
@@ -1590,16 +1587,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27923</v>
+        <v>28520</v>
       </c>
       <c r="B55" t="s">
         <v>97</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -1607,16 +1604,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28520</v>
+        <v>28677</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -1624,16 +1621,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>28677</v>
+        <v>28854</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
         <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -1641,16 +1638,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>28854</v>
+        <v>28893</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
         <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -1658,16 +1655,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>28893</v>
+        <v>29266</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -1675,7 +1672,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>29266</v>
+        <v>29445</v>
       </c>
       <c r="B60" t="s">
         <v>106</v>
@@ -1684,26 +1681,9 @@
         <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>29445</v>
-      </c>
-      <c r="B61" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" t="s">
-        <v>108</v>
-      </c>
-      <c r="E61" t="n">
         <v>1</v>
       </c>
     </row>
